--- a/biology/Zoologie/Ganga_unibande/Ganga_unibande.xlsx
+++ b/biology/Zoologie/Ganga_unibande/Ganga_unibande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterocles orientalis
 Le Ganga unibande (Pterocles orientalis) est une espèce d'oiseaux de taille moyenne appartenant à la famille des Pteroclidae.
@@ -512,9 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par Carl von Linné en 1758 sous le nom de Pterocles orientalis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Carl von Linné en 1758 sous le nom de Pterocles orientalis.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En français : ganga unibande
 Autres langues : Son nom en valencien est xurra. Son nom en espagnol est ortega en Espagne continentale et ganga à Fuerteventura (îles Canaries). En arabe (Algérie) son nom est qata hourr.</t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ganga unibande mesure de 33 à 39 cm de longueur. La tête, le cou et la poitrine du mâle sont gris. Ses parties inférieures sont noires et les supérieures brun doré avec des marques plus foncées. Le bas de la poitrine porte une fine ligne noire, et la gorge une tache châtaine. La femelle a les parties supérieures plus brunes et plus finement marquées, et cette coloration générale s’étend à la tête et la poitrine. Ses parties inférieures et la bande pectorale sont comme chez le mâle.
 La race orientale arenarius est plus pâle et plus lourde que la race nominale orientalis. Les mâles ont le dessus plus jaune et le dessous plus gris que chez la forme occidentale. Les femelles sont plus blanches dessous, mais cette différence est peu marquée.
@@ -607,7 +625,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La race nominale niche dans la péninsule ibérique, le Nord-Ouest de l’Afrique, aux îles Canaries, en Turquie, à Chypre et en Israël. La forme orientale Pterocles orientalis arenarius (Pallas) se rencontre au Kazakhstan, dans l’Ouest de la Chine et dans le Nord du Pakistan. C’est un migrateur partiel, les oiseaux d’Asie centrale se rendant en hiver au Pakistan et dans le Nord de l’Inde.
 </t>
@@ -638,7 +658,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce grégaire niche dans les plaines sèches et les milieux similaires, mais à l’inverse du Ganga cata il évite les zones totalement dépourvues de végétation.
 </t>
@@ -669,7 +691,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nid est une dépression grattée à la surface du sol, dans laquelle sont pondus 3 œufs verdâtres camouflés par des taches. La couvaison est assurée par les deux parents, mais seul le male rapporte de l’eau pour les poussins.
 </t>
@@ -700,9 +724,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux Canaries, en particulier à Lanzarote, les populations du Ganga unibande — parfois traitées comme une sous-espèce, P. o. aragonica — sont en déclin[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux Canaries, en particulier à Lanzarote, les populations du Ganga unibande — parfois traitées comme une sous-espèce, P. o. aragonica — sont en déclin.
 </t>
         </is>
       </c>
